--- a/Proyectos Personales/SunCorp/Documentacion/Recursos/Catalogos/UsTipoUsuario.xlsx
+++ b/Proyectos Personales/SunCorp/Documentacion/Recursos/Catalogos/UsTipoUsuario.xlsx
@@ -10,7 +10,6 @@
     <sheet name="UsTipoUsuario" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="UsTipoUsuario">UsTipoUsuario!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -98,36 +97,8 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -503,8 +474,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>